--- a/update/historicos/curva_pesos_uyu_ui_temp.xlsx
+++ b/update/historicos/curva_pesos_uyu_ui_temp.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,3235 +526,3341 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46059</v>
+        <v>46066</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25102</v>
+        <v>0.26995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25368</v>
+        <v>0.26874</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25915</v>
+        <v>0.26713</v>
       </c>
       <c r="E2" t="n">
-        <v>0.27077</v>
+        <v>0.26727</v>
       </c>
       <c r="F2" t="n">
-        <v>0.28336</v>
+        <v>0.27224</v>
       </c>
       <c r="G2" t="n">
-        <v>0.29678</v>
+        <v>0.28233</v>
       </c>
       <c r="H2" t="n">
-        <v>0.30643</v>
+        <v>0.29233</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3114</v>
+        <v>0.29803</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3147</v>
+        <v>0.30182</v>
       </c>
       <c r="K2" t="n">
-        <v>0.31469</v>
+        <v>0.30169</v>
       </c>
       <c r="L2" t="n">
-        <v>0.31109</v>
+        <v>0.29726</v>
       </c>
       <c r="M2" t="n">
-        <v>0.30845</v>
+        <v>0.29398</v>
       </c>
       <c r="N2" t="n">
-        <v>0.30279</v>
+        <v>0.28765</v>
       </c>
       <c r="O2" t="n">
-        <v>0.30091</v>
+        <v>0.28643</v>
       </c>
       <c r="P2" t="n">
-        <v>0.29973</v>
+        <v>0.28613</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.30083</v>
+        <v>0.28812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46058</v>
+        <v>46065</v>
       </c>
       <c r="B3" t="n">
-        <v>0.26081</v>
+        <v>0.26418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.26289</v>
+        <v>0.26427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.26726</v>
+        <v>0.26498</v>
       </c>
       <c r="E3" t="n">
-        <v>0.27687</v>
+        <v>0.26863</v>
       </c>
       <c r="F3" t="n">
-        <v>0.28774</v>
+        <v>0.27545</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29995</v>
+        <v>0.28526</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3096</v>
+        <v>0.29294</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3149</v>
+        <v>0.29686</v>
       </c>
       <c r="J3" t="n">
-        <v>0.31837</v>
+        <v>0.29957</v>
       </c>
       <c r="K3" t="n">
-        <v>0.31865</v>
+        <v>0.29894</v>
       </c>
       <c r="L3" t="n">
-        <v>0.31543</v>
+        <v>0.29459</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3129</v>
+        <v>0.29149</v>
       </c>
       <c r="N3" t="n">
-        <v>0.30633</v>
+        <v>0.28581</v>
       </c>
       <c r="O3" t="n">
-        <v>0.30282</v>
+        <v>0.28527</v>
       </c>
       <c r="P3" t="n">
-        <v>0.29971</v>
+        <v>0.2859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.29861</v>
+        <v>0.28899</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46057</v>
+        <v>46064</v>
       </c>
       <c r="B4" t="n">
-        <v>0.27619</v>
+        <v>0.25773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.27795</v>
+        <v>0.25939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2815</v>
+        <v>0.26288</v>
       </c>
       <c r="E4" t="n">
-        <v>0.28876</v>
+        <v>0.27062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.29623</v>
+        <v>0.27945</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3043</v>
+        <v>0.28874</v>
       </c>
       <c r="H4" t="n">
-        <v>0.31172</v>
+        <v>0.29403</v>
       </c>
       <c r="I4" t="n">
-        <v>0.31642</v>
+        <v>0.29632</v>
       </c>
       <c r="J4" t="n">
-        <v>0.31957</v>
+        <v>0.29807</v>
       </c>
       <c r="K4" t="n">
-        <v>0.32076</v>
+        <v>0.29725</v>
       </c>
       <c r="L4" t="n">
-        <v>0.31953</v>
+        <v>0.29345</v>
       </c>
       <c r="M4" t="n">
-        <v>0.31817</v>
+        <v>0.29079</v>
       </c>
       <c r="N4" t="n">
-        <v>0.31256</v>
+        <v>0.28569</v>
       </c>
       <c r="O4" t="n">
-        <v>0.30835</v>
+        <v>0.28513</v>
       </c>
       <c r="P4" t="n">
-        <v>0.30448</v>
+        <v>0.28581</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.30261</v>
+        <v>0.28897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46056</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="n">
-        <v>0.27573</v>
+        <v>0.25485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.27759</v>
+        <v>0.25691</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28133</v>
+        <v>0.2612</v>
       </c>
       <c r="E5" t="n">
-        <v>0.28879</v>
+        <v>0.27048</v>
       </c>
       <c r="F5" t="n">
-        <v>0.29626</v>
+        <v>0.28078</v>
       </c>
       <c r="G5" t="n">
-        <v>0.30415</v>
+        <v>0.29127</v>
       </c>
       <c r="H5" t="n">
-        <v>0.31166</v>
+        <v>0.29664</v>
       </c>
       <c r="I5" t="n">
-        <v>0.31671</v>
+        <v>0.29858</v>
       </c>
       <c r="J5" t="n">
-        <v>0.32024</v>
+        <v>0.30006</v>
       </c>
       <c r="K5" t="n">
-        <v>0.32199</v>
+        <v>0.29872</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3215</v>
+        <v>0.29422</v>
       </c>
       <c r="M5" t="n">
-        <v>0.32075</v>
+        <v>0.29114</v>
       </c>
       <c r="N5" t="n">
-        <v>0.31738</v>
+        <v>0.28551</v>
       </c>
       <c r="O5" t="n">
-        <v>0.31532</v>
+        <v>0.28498</v>
       </c>
       <c r="P5" t="n">
-        <v>0.31388</v>
+        <v>0.28573</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3148</v>
+        <v>0.28902</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46055</v>
+        <v>46062</v>
       </c>
       <c r="B6" t="n">
-        <v>0.27498</v>
+        <v>0.2511</v>
       </c>
       <c r="C6" t="n">
-        <v>0.27696</v>
+        <v>0.25375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2809</v>
+        <v>0.25916</v>
       </c>
       <c r="E6" t="n">
-        <v>0.28866</v>
+        <v>0.27039</v>
       </c>
       <c r="F6" t="n">
-        <v>0.29625</v>
+        <v>0.28226</v>
       </c>
       <c r="G6" t="n">
-        <v>0.30399</v>
+        <v>0.29427</v>
       </c>
       <c r="H6" t="n">
-        <v>0.31102</v>
+        <v>0.30175</v>
       </c>
       <c r="I6" t="n">
-        <v>0.31569</v>
+        <v>0.30527</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00319</v>
+        <v>0.30775</v>
       </c>
       <c r="K6" t="n">
-        <v>0.32062</v>
+        <v>0.30731</v>
       </c>
       <c r="L6" t="n">
-        <v>0.32006</v>
+        <v>0.30363</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3193</v>
+        <v>0.30104</v>
       </c>
       <c r="N6" t="n">
-        <v>0.31609</v>
+        <v>0.2962</v>
       </c>
       <c r="O6" t="n">
-        <v>0.31432</v>
+        <v>0.29563</v>
       </c>
       <c r="P6" t="n">
-        <v>0.31327</v>
+        <v>0.29615</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.31466</v>
+        <v>0.29919</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46052</v>
+        <v>46059</v>
       </c>
       <c r="B7" t="n">
-        <v>0.27334</v>
+        <v>0.25102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.27551</v>
+        <v>0.25368</v>
       </c>
       <c r="D7" t="n">
-        <v>0.27981</v>
+        <v>0.25915</v>
       </c>
       <c r="E7" t="n">
-        <v>0.28816</v>
+        <v>0.27077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.29617</v>
+        <v>0.28336</v>
       </c>
       <c r="G7" t="n">
-        <v>0.30389</v>
+        <v>0.29678</v>
       </c>
       <c r="H7" t="n">
-        <v>0.31017</v>
+        <v>0.30643</v>
       </c>
       <c r="I7" t="n">
-        <v>0.31431</v>
+        <v>0.3114</v>
       </c>
       <c r="J7" t="n">
-        <v>0.31737</v>
+        <v>0.3147</v>
       </c>
       <c r="K7" t="n">
-        <v>0.31878</v>
+        <v>0.31469</v>
       </c>
       <c r="L7" t="n">
-        <v>0.31806</v>
+        <v>0.31109</v>
       </c>
       <c r="M7" t="n">
-        <v>0.31728</v>
+        <v>0.30845</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3146</v>
+        <v>0.30279</v>
       </c>
       <c r="O7" t="n">
-        <v>0.31366</v>
+        <v>0.30091</v>
       </c>
       <c r="P7" t="n">
-        <v>0.31359</v>
+        <v>0.29973</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.31611</v>
+        <v>0.30083</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46051</v>
+        <v>46058</v>
       </c>
       <c r="B8" t="n">
-        <v>0.27487</v>
+        <v>0.26081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.27696</v>
+        <v>0.26289</v>
       </c>
       <c r="D8" t="n">
-        <v>0.28108</v>
+        <v>0.26726</v>
       </c>
       <c r="E8" t="n">
-        <v>0.28902</v>
+        <v>0.27687</v>
       </c>
       <c r="F8" t="n">
-        <v>0.29655</v>
+        <v>0.28774</v>
       </c>
       <c r="G8" t="n">
-        <v>0.30399</v>
+        <v>0.29995</v>
       </c>
       <c r="H8" t="n">
-        <v>0.31077</v>
+        <v>0.3096</v>
       </c>
       <c r="I8" t="n">
-        <v>0.31538</v>
+        <v>0.3149</v>
       </c>
       <c r="J8" t="n">
-        <v>0.31866</v>
+        <v>0.31837</v>
       </c>
       <c r="K8" t="n">
-        <v>0.32039</v>
+        <v>0.31865</v>
       </c>
       <c r="L8" t="n">
-        <v>0.32008</v>
+        <v>0.31543</v>
       </c>
       <c r="M8" t="n">
-        <v>0.31946</v>
+        <v>0.3129</v>
       </c>
       <c r="N8" t="n">
-        <v>0.31636</v>
+        <v>0.30633</v>
       </c>
       <c r="O8" t="n">
-        <v>0.31445</v>
+        <v>0.30282</v>
       </c>
       <c r="P8" t="n">
-        <v>0.31321</v>
+        <v>0.29971</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.31437</v>
+        <v>0.29861</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B9" t="n">
-        <v>0.27711</v>
+        <v>0.27619</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27905</v>
+        <v>0.27795</v>
       </c>
       <c r="D9" t="n">
-        <v>0.28287</v>
+        <v>0.2815</v>
       </c>
       <c r="E9" t="n">
-        <v>0.29018</v>
+        <v>0.28876</v>
       </c>
       <c r="F9" t="n">
-        <v>0.29703</v>
+        <v>0.29623</v>
       </c>
       <c r="G9" t="n">
-        <v>0.30374</v>
+        <v>0.3043</v>
       </c>
       <c r="H9" t="n">
-        <v>0.30996</v>
+        <v>0.31172</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3143</v>
+        <v>0.31642</v>
       </c>
       <c r="J9" t="n">
-        <v>0.31744</v>
+        <v>0.31957</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3192</v>
+        <v>0.32076</v>
       </c>
       <c r="L9" t="n">
-        <v>0.31904</v>
+        <v>0.31953</v>
       </c>
       <c r="M9" t="n">
-        <v>0.31855</v>
+        <v>0.31817</v>
       </c>
       <c r="N9" t="n">
-        <v>0.31573</v>
+        <v>0.31256</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3141</v>
+        <v>0.30835</v>
       </c>
       <c r="P9" t="n">
-        <v>0.31322</v>
+        <v>0.30448</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.31482</v>
+        <v>0.30261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46049</v>
+        <v>46056</v>
       </c>
       <c r="B10" t="n">
-        <v>0.28009</v>
+        <v>0.27573</v>
       </c>
       <c r="C10" t="n">
-        <v>0.28185</v>
+        <v>0.27759</v>
       </c>
       <c r="D10" t="n">
-        <v>0.28526</v>
+        <v>0.28133</v>
       </c>
       <c r="E10" t="n">
-        <v>0.29174</v>
+        <v>0.28879</v>
       </c>
       <c r="F10" t="n">
-        <v>0.29771</v>
+        <v>0.29626</v>
       </c>
       <c r="G10" t="n">
-        <v>0.30344</v>
+        <v>0.30415</v>
       </c>
       <c r="H10" t="n">
-        <v>0.30893</v>
+        <v>0.31166</v>
       </c>
       <c r="I10" t="n">
-        <v>0.31291</v>
+        <v>0.31671</v>
       </c>
       <c r="J10" t="n">
-        <v>0.31587</v>
+        <v>0.32024</v>
       </c>
       <c r="K10" t="n">
-        <v>0.31766</v>
+        <v>0.32199</v>
       </c>
       <c r="L10" t="n">
-        <v>0.31772</v>
+        <v>0.3215</v>
       </c>
       <c r="M10" t="n">
-        <v>0.31737</v>
+        <v>0.32075</v>
       </c>
       <c r="N10" t="n">
-        <v>0.31493</v>
+        <v>0.31738</v>
       </c>
       <c r="O10" t="n">
-        <v>0.31364</v>
+        <v>0.31532</v>
       </c>
       <c r="P10" t="n">
-        <v>0.31324</v>
+        <v>0.31388</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3154</v>
+        <v>0.3148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46048</v>
+        <v>46055</v>
       </c>
       <c r="B11" t="n">
-        <v>0.28441</v>
+        <v>0.27498</v>
       </c>
       <c r="C11" t="n">
-        <v>0.28596</v>
+        <v>0.27696</v>
       </c>
       <c r="D11" t="n">
-        <v>0.28894</v>
+        <v>0.2809</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2944</v>
+        <v>0.28866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.29914</v>
+        <v>0.29625</v>
       </c>
       <c r="G11" t="n">
-        <v>0.30342</v>
+        <v>0.30399</v>
       </c>
       <c r="H11" t="n">
-        <v>0.30769</v>
+        <v>0.31102</v>
       </c>
       <c r="I11" t="n">
-        <v>0.31107</v>
+        <v>0.31569</v>
       </c>
       <c r="J11" t="n">
-        <v>0.31371</v>
+        <v>3.19</v>
       </c>
       <c r="K11" t="n">
-        <v>0.31554</v>
+        <v>0.32062</v>
       </c>
       <c r="L11" t="n">
-        <v>0.31595</v>
+        <v>0.32006</v>
       </c>
       <c r="M11" t="n">
-        <v>0.31585</v>
+        <v>0.3193</v>
       </c>
       <c r="N11" t="n">
-        <v>0.31391</v>
+        <v>0.31609</v>
       </c>
       <c r="O11" t="n">
-        <v>0.31305</v>
+        <v>0.31432</v>
       </c>
       <c r="P11" t="n">
-        <v>0.31324</v>
+        <v>0.31327</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.31612</v>
+        <v>0.31466</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46045</v>
+        <v>46052</v>
       </c>
       <c r="B12" t="n">
-        <v>0.28985</v>
+        <v>0.27334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2913</v>
+        <v>0.27551</v>
       </c>
       <c r="D12" t="n">
-        <v>0.29399</v>
+        <v>0.27981</v>
       </c>
       <c r="E12" t="n">
-        <v>0.29845</v>
+        <v>0.28816</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3016</v>
+        <v>0.29617</v>
       </c>
       <c r="G12" t="n">
-        <v>0.30362</v>
+        <v>0.30389</v>
       </c>
       <c r="H12" t="n">
-        <v>0.30596</v>
+        <v>0.31017</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3084</v>
+        <v>0.31431</v>
       </c>
       <c r="J12" t="n">
-        <v>0.31055</v>
+        <v>0.31737</v>
       </c>
       <c r="K12" t="n">
-        <v>0.31252</v>
+        <v>0.31878</v>
       </c>
       <c r="L12" t="n">
-        <v>0.31363</v>
+        <v>0.31806</v>
       </c>
       <c r="M12" t="n">
-        <v>0.31399</v>
+        <v>0.31728</v>
       </c>
       <c r="N12" t="n">
-        <v>0.31284</v>
+        <v>0.3146</v>
       </c>
       <c r="O12" t="n">
-        <v>0.31242</v>
+        <v>0.31366</v>
       </c>
       <c r="P12" t="n">
-        <v>0.31323</v>
+        <v>0.31359</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.31688</v>
+        <v>0.31611</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46044</v>
+        <v>46051</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3148</v>
+        <v>0.27487</v>
       </c>
       <c r="C13" t="n">
-        <v>0.31373</v>
+        <v>0.27696</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3117</v>
+        <v>0.28108</v>
       </c>
       <c r="E13" t="n">
-        <v>0.30809</v>
+        <v>0.28902</v>
       </c>
       <c r="F13" t="n">
-        <v>0.30513</v>
+        <v>0.29655</v>
       </c>
       <c r="G13" t="n">
-        <v>0.30323</v>
+        <v>0.30399</v>
       </c>
       <c r="H13" t="n">
-        <v>0.30403</v>
+        <v>0.31077</v>
       </c>
       <c r="I13" t="n">
-        <v>0.30597</v>
+        <v>0.31538</v>
       </c>
       <c r="J13" t="n">
-        <v>0.30794</v>
+        <v>0.31866</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3099</v>
+        <v>0.32039</v>
       </c>
       <c r="L13" t="n">
-        <v>0.31107</v>
+        <v>0.32008</v>
       </c>
       <c r="M13" t="n">
-        <v>0.31156</v>
+        <v>0.31946</v>
       </c>
       <c r="N13" t="n">
-        <v>0.31205</v>
+        <v>0.31636</v>
       </c>
       <c r="O13" t="n">
-        <v>0.31439</v>
+        <v>0.31445</v>
       </c>
       <c r="P13" t="n">
-        <v>0.31877</v>
+        <v>0.31321</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3268</v>
+        <v>0.31437</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46043</v>
+        <v>46050</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31125</v>
+        <v>0.27711</v>
       </c>
       <c r="C14" t="n">
-        <v>0.31102</v>
+        <v>0.27905</v>
       </c>
       <c r="D14" t="n">
-        <v>0.31046</v>
+        <v>0.28287</v>
       </c>
       <c r="E14" t="n">
-        <v>0.30897</v>
+        <v>0.29018</v>
       </c>
       <c r="F14" t="n">
-        <v>0.30697</v>
+        <v>0.29703</v>
       </c>
       <c r="G14" t="n">
-        <v>0.30423</v>
+        <v>0.30374</v>
       </c>
       <c r="H14" t="n">
-        <v>0.30255</v>
+        <v>0.30996</v>
       </c>
       <c r="I14" t="n">
-        <v>0.30295</v>
+        <v>0.3143</v>
       </c>
       <c r="J14" t="n">
-        <v>0.30416</v>
+        <v>0.31744</v>
       </c>
       <c r="K14" t="n">
-        <v>0.30587</v>
+        <v>0.3192</v>
       </c>
       <c r="L14" t="n">
-        <v>0.30724</v>
+        <v>0.31904</v>
       </c>
       <c r="M14" t="n">
-        <v>0.30804</v>
+        <v>0.31855</v>
       </c>
       <c r="N14" t="n">
-        <v>0.30978</v>
+        <v>0.31573</v>
       </c>
       <c r="O14" t="n">
-        <v>0.31339</v>
+        <v>0.3141</v>
       </c>
       <c r="P14" t="n">
-        <v>0.31931</v>
+        <v>0.31322</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.32922</v>
+        <v>0.31482</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46042</v>
+        <v>46049</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30792</v>
+        <v>0.28009</v>
       </c>
       <c r="C15" t="n">
-        <v>0.30867</v>
+        <v>0.28185</v>
       </c>
       <c r="D15" t="n">
-        <v>0.30985</v>
+        <v>0.28526</v>
       </c>
       <c r="E15" t="n">
-        <v>0.31079</v>
+        <v>0.29174</v>
       </c>
       <c r="F15" t="n">
-        <v>0.30973</v>
+        <v>0.29771</v>
       </c>
       <c r="G15" t="n">
-        <v>0.30617</v>
+        <v>0.30344</v>
       </c>
       <c r="H15" t="n">
-        <v>0.30268</v>
+        <v>0.30893</v>
       </c>
       <c r="I15" t="n">
-        <v>0.30198</v>
+        <v>0.31291</v>
       </c>
       <c r="J15" t="n">
-        <v>0.30257</v>
+        <v>0.31587</v>
       </c>
       <c r="K15" t="n">
-        <v>0.30429</v>
+        <v>0.31766</v>
       </c>
       <c r="L15" t="n">
-        <v>0.30627</v>
+        <v>0.31772</v>
       </c>
       <c r="M15" t="n">
-        <v>0.30748</v>
+        <v>0.31737</v>
       </c>
       <c r="N15" t="n">
-        <v>0.30971</v>
+        <v>0.31493</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3133</v>
+        <v>0.31364</v>
       </c>
       <c r="P15" t="n">
-        <v>0.31924</v>
+        <v>0.31324</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3292</v>
+        <v>0.3154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46041</v>
+        <v>46048</v>
       </c>
       <c r="B16" t="n">
-        <v>0.30568</v>
+        <v>0.28441</v>
       </c>
       <c r="C16" t="n">
-        <v>0.30765</v>
+        <v>0.28596</v>
       </c>
       <c r="D16" t="n">
-        <v>0.31092</v>
+        <v>0.28894</v>
       </c>
       <c r="E16" t="n">
-        <v>0.31456</v>
+        <v>0.2944</v>
       </c>
       <c r="F16" t="n">
-        <v>0.31405</v>
+        <v>0.29914</v>
       </c>
       <c r="G16" t="n">
-        <v>0.30876</v>
+        <v>0.30342</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3029</v>
+        <v>0.30769</v>
       </c>
       <c r="I16" t="n">
-        <v>0.30086</v>
+        <v>0.31107</v>
       </c>
       <c r="J16" t="n">
-        <v>0.30066</v>
+        <v>0.31371</v>
       </c>
       <c r="K16" t="n">
-        <v>0.30264</v>
+        <v>0.31554</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3058</v>
+        <v>0.31595</v>
       </c>
       <c r="M16" t="n">
-        <v>0.30773</v>
+        <v>0.31585</v>
       </c>
       <c r="N16" t="n">
-        <v>0.31043</v>
+        <v>0.31391</v>
       </c>
       <c r="O16" t="n">
-        <v>0.31347</v>
+        <v>0.31305</v>
       </c>
       <c r="P16" t="n">
-        <v>0.31886</v>
+        <v>0.31324</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.32821</v>
+        <v>0.31612</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46038</v>
+        <v>46045</v>
       </c>
       <c r="B17" t="n">
-        <v>0.30526</v>
+        <v>0.28985</v>
       </c>
       <c r="C17" t="n">
-        <v>0.30756</v>
+        <v>0.2913</v>
       </c>
       <c r="D17" t="n">
-        <v>0.31136</v>
+        <v>0.29399</v>
       </c>
       <c r="E17" t="n">
-        <v>0.31553</v>
+        <v>0.29845</v>
       </c>
       <c r="F17" t="n">
-        <v>0.31473</v>
+        <v>0.3016</v>
       </c>
       <c r="G17" t="n">
-        <v>0.30818</v>
+        <v>0.30362</v>
       </c>
       <c r="H17" t="n">
-        <v>0.30082</v>
+        <v>0.30596</v>
       </c>
       <c r="I17" t="n">
-        <v>0.29805</v>
+        <v>0.3084</v>
       </c>
       <c r="J17" t="n">
-        <v>0.29751</v>
+        <v>0.31055</v>
       </c>
       <c r="K17" t="n">
-        <v>0.29966</v>
+        <v>0.31252</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3034</v>
+        <v>0.31363</v>
       </c>
       <c r="M17" t="n">
-        <v>0.30575</v>
+        <v>0.31399</v>
       </c>
       <c r="N17" t="n">
-        <v>0.30934</v>
+        <v>0.31284</v>
       </c>
       <c r="O17" t="n">
-        <v>0.31295</v>
+        <v>0.31242</v>
       </c>
       <c r="P17" t="n">
-        <v>0.31906</v>
+        <v>0.31323</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.32927</v>
+        <v>0.31688</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46037</v>
+        <v>46044</v>
       </c>
       <c r="B18" t="n">
-        <v>0.30638</v>
+        <v>0.3148</v>
       </c>
       <c r="C18" t="n">
-        <v>0.30874</v>
+        <v>0.31373</v>
       </c>
       <c r="D18" t="n">
-        <v>0.31259</v>
+        <v>0.3117</v>
       </c>
       <c r="E18" t="n">
-        <v>0.31662</v>
+        <v>0.30809</v>
       </c>
       <c r="F18" t="n">
-        <v>0.31531</v>
+        <v>0.30513</v>
       </c>
       <c r="G18" t="n">
-        <v>0.30755</v>
+        <v>0.30323</v>
       </c>
       <c r="H18" t="n">
-        <v>0.29838</v>
+        <v>0.30403</v>
       </c>
       <c r="I18" t="n">
-        <v>0.29453</v>
+        <v>0.30597</v>
       </c>
       <c r="J18" t="n">
-        <v>0.29347</v>
+        <v>0.30794</v>
       </c>
       <c r="K18" t="n">
-        <v>0.29544</v>
+        <v>0.3099</v>
       </c>
       <c r="L18" t="n">
-        <v>0.29928</v>
+        <v>0.31107</v>
       </c>
       <c r="M18" t="n">
-        <v>0.30183</v>
+        <v>0.31156</v>
       </c>
       <c r="N18" t="n">
-        <v>0.30653</v>
+        <v>0.31205</v>
       </c>
       <c r="O18" t="n">
-        <v>0.31158</v>
+        <v>0.31439</v>
       </c>
       <c r="P18" t="n">
-        <v>0.31951</v>
+        <v>0.31877</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.33198</v>
+        <v>0.3268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46036</v>
+        <v>46043</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3081</v>
+        <v>0.31125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3105</v>
+        <v>0.31102</v>
       </c>
       <c r="D19" t="n">
-        <v>0.31436</v>
+        <v>0.31046</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3181</v>
+        <v>0.30897</v>
       </c>
       <c r="F19" t="n">
-        <v>0.31607</v>
+        <v>0.30697</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3071</v>
+        <v>0.30423</v>
       </c>
       <c r="H19" t="n">
-        <v>0.29678</v>
+        <v>0.30255</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2924</v>
+        <v>0.30295</v>
       </c>
       <c r="J19" t="n">
-        <v>0.29111</v>
+        <v>0.30416</v>
       </c>
       <c r="K19" t="n">
-        <v>0.29321</v>
+        <v>0.30587</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2975</v>
+        <v>0.30724</v>
       </c>
       <c r="M19" t="n">
-        <v>0.30035</v>
+        <v>0.30804</v>
       </c>
       <c r="N19" t="n">
-        <v>0.30575</v>
+        <v>0.30978</v>
       </c>
       <c r="O19" t="n">
-        <v>0.31134</v>
+        <v>0.31339</v>
       </c>
       <c r="P19" t="n">
-        <v>0.31996</v>
+        <v>0.31931</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3333</v>
+        <v>0.32922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46035</v>
+        <v>46042</v>
       </c>
       <c r="B20" t="n">
-        <v>0.30449</v>
+        <v>0.30792</v>
       </c>
       <c r="C20" t="n">
-        <v>0.30744</v>
+        <v>0.30867</v>
       </c>
       <c r="D20" t="n">
-        <v>0.31226</v>
+        <v>0.30985</v>
       </c>
       <c r="E20" t="n">
-        <v>0.31733</v>
+        <v>0.31079</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3158</v>
+        <v>0.30973</v>
       </c>
       <c r="G20" t="n">
-        <v>0.30652</v>
+        <v>0.30617</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2956</v>
+        <v>0.30268</v>
       </c>
       <c r="I20" t="n">
-        <v>0.29069</v>
+        <v>0.30198</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2889</v>
+        <v>0.30257</v>
       </c>
       <c r="K20" t="n">
-        <v>0.29075</v>
+        <v>0.30429</v>
       </c>
       <c r="L20" t="n">
-        <v>0.29499</v>
+        <v>0.30627</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2976</v>
+        <v>0.30748</v>
       </c>
       <c r="N20" t="n">
-        <v>0.30045</v>
+        <v>0.30971</v>
       </c>
       <c r="O20" t="n">
-        <v>0.30265</v>
+        <v>0.3133</v>
       </c>
       <c r="P20" t="n">
-        <v>0.30719</v>
+        <v>0.31924</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.31538</v>
+        <v>0.3292</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46034</v>
+        <v>46041</v>
       </c>
       <c r="B21" t="n">
-        <v>0.30195</v>
+        <v>0.30568</v>
       </c>
       <c r="C21" t="n">
-        <v>0.30519</v>
+        <v>0.30765</v>
       </c>
       <c r="D21" t="n">
-        <v>0.31053</v>
+        <v>0.31092</v>
       </c>
       <c r="E21" t="n">
-        <v>0.31631</v>
+        <v>0.31456</v>
       </c>
       <c r="F21" t="n">
-        <v>0.31501</v>
+        <v>0.31405</v>
       </c>
       <c r="G21" t="n">
-        <v>0.30543</v>
+        <v>0.30876</v>
       </c>
       <c r="H21" t="n">
-        <v>0.29419</v>
+        <v>0.3029</v>
       </c>
       <c r="I21" t="n">
-        <v>0.28928</v>
+        <v>0.30086</v>
       </c>
       <c r="J21" t="n">
-        <v>0.28757</v>
+        <v>0.30066</v>
       </c>
       <c r="K21" t="n">
-        <v>0.28974</v>
+        <v>0.30264</v>
       </c>
       <c r="L21" t="n">
-        <v>0.29448</v>
+        <v>0.3058</v>
       </c>
       <c r="M21" t="n">
-        <v>0.29746</v>
+        <v>0.30773</v>
       </c>
       <c r="N21" t="n">
-        <v>0.30118</v>
+        <v>0.31043</v>
       </c>
       <c r="O21" t="n">
-        <v>0.30396</v>
+        <v>0.31347</v>
       </c>
       <c r="P21" t="n">
-        <v>0.30914</v>
+        <v>0.31886</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3181</v>
+        <v>0.32821</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46031</v>
+        <v>46038</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3019</v>
+        <v>0.30526</v>
       </c>
       <c r="C22" t="n">
-        <v>0.30509</v>
+        <v>0.30756</v>
       </c>
       <c r="D22" t="n">
-        <v>0.31031</v>
+        <v>0.31136</v>
       </c>
       <c r="E22" t="n">
-        <v>0.31576</v>
+        <v>0.31553</v>
       </c>
       <c r="F22" t="n">
-        <v>0.31401</v>
+        <v>0.31473</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00304</v>
+        <v>0.30818</v>
       </c>
       <c r="H22" t="n">
-        <v>0.29281</v>
+        <v>0.30082</v>
       </c>
       <c r="I22" t="n">
-        <v>0.28806</v>
+        <v>0.29805</v>
       </c>
       <c r="J22" t="n">
-        <v>0.28647</v>
+        <v>0.29751</v>
       </c>
       <c r="K22" t="n">
-        <v>0.28888</v>
+        <v>0.29966</v>
       </c>
       <c r="L22" t="n">
-        <v>0.29398</v>
+        <v>0.3034</v>
       </c>
       <c r="M22" t="n">
-        <v>0.29715</v>
+        <v>0.30575</v>
       </c>
       <c r="N22" t="n">
-        <v>0.30108</v>
+        <v>0.30934</v>
       </c>
       <c r="O22" t="n">
-        <v>0.30384</v>
+        <v>0.31295</v>
       </c>
       <c r="P22" t="n">
-        <v>0.30899</v>
+        <v>0.31906</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.31792</v>
+        <v>0.32927</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46030</v>
+        <v>46037</v>
       </c>
       <c r="B23" t="n">
-        <v>0.30821</v>
+        <v>0.30638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.31054</v>
+        <v>0.30874</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3141</v>
+        <v>0.31259</v>
       </c>
       <c r="E23" t="n">
-        <v>0.31664</v>
+        <v>0.31662</v>
       </c>
       <c r="F23" t="n">
-        <v>0.31255</v>
+        <v>0.31531</v>
       </c>
       <c r="G23" t="n">
-        <v>0.30126</v>
+        <v>0.30755</v>
       </c>
       <c r="H23" t="n">
-        <v>0.29145</v>
+        <v>0.29838</v>
       </c>
       <c r="I23" t="n">
-        <v>0.28857</v>
+        <v>0.29453</v>
       </c>
       <c r="J23" t="n">
-        <v>0.28825</v>
+        <v>0.29347</v>
       </c>
       <c r="K23" t="n">
-        <v>0.29197</v>
+        <v>0.29544</v>
       </c>
       <c r="L23" t="n">
-        <v>0.29833</v>
+        <v>0.29928</v>
       </c>
       <c r="M23" t="n">
-        <v>0.30214</v>
+        <v>0.30183</v>
       </c>
       <c r="N23" t="n">
-        <v>0.30589</v>
+        <v>0.30653</v>
       </c>
       <c r="O23" t="n">
-        <v>0.30682</v>
+        <v>0.31158</v>
       </c>
       <c r="P23" t="n">
-        <v>0.30942</v>
+        <v>0.31951</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3152</v>
+        <v>0.33198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="B24" t="n">
-        <v>0.29568</v>
+        <v>0.3081</v>
       </c>
       <c r="C24" t="n">
-        <v>0.29897</v>
+        <v>0.3105</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3044</v>
+        <v>0.31436</v>
       </c>
       <c r="E24" t="n">
-        <v>0.31043</v>
+        <v>0.3181</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3095</v>
+        <v>0.31607</v>
       </c>
       <c r="G24" t="n">
-        <v>0.30092</v>
+        <v>0.3071</v>
       </c>
       <c r="H24" t="n">
-        <v>0.29251</v>
+        <v>0.29678</v>
       </c>
       <c r="I24" t="n">
-        <v>0.29009</v>
+        <v>0.2924</v>
       </c>
       <c r="J24" t="n">
-        <v>0.28998</v>
+        <v>0.29111</v>
       </c>
       <c r="K24" t="n">
-        <v>0.29351</v>
+        <v>0.29321</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2994</v>
+        <v>0.2975</v>
       </c>
       <c r="M24" t="n">
-        <v>0.30294</v>
+        <v>0.30035</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3064</v>
+        <v>0.30575</v>
       </c>
       <c r="O24" t="n">
-        <v>0.30716</v>
+        <v>0.31134</v>
       </c>
       <c r="P24" t="n">
-        <v>0.30947</v>
+        <v>0.31996</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.31487</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46027</v>
+        <v>46035</v>
       </c>
       <c r="B25" t="n">
-        <v>0.29574</v>
+        <v>0.30449</v>
       </c>
       <c r="C25" t="n">
-        <v>0.29894</v>
+        <v>0.30744</v>
       </c>
       <c r="D25" t="n">
-        <v>0.30424</v>
+        <v>0.31226</v>
       </c>
       <c r="E25" t="n">
-        <v>0.31018</v>
+        <v>0.31733</v>
       </c>
       <c r="F25" t="n">
-        <v>0.30938</v>
+        <v>0.3158</v>
       </c>
       <c r="G25" t="n">
-        <v>0.30121</v>
+        <v>0.30652</v>
       </c>
       <c r="H25" t="n">
-        <v>0.29322</v>
+        <v>0.2956</v>
       </c>
       <c r="I25" t="n">
-        <v>0.29099</v>
+        <v>0.29069</v>
       </c>
       <c r="J25" t="n">
-        <v>0.29095</v>
+        <v>0.2889</v>
       </c>
       <c r="K25" t="n">
-        <v>0.29441</v>
+        <v>0.29075</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3001</v>
+        <v>0.29499</v>
       </c>
       <c r="M25" t="n">
-        <v>0.30351</v>
+        <v>0.2976</v>
       </c>
       <c r="N25" t="n">
-        <v>0.30669</v>
+        <v>0.30045</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3073</v>
+        <v>0.30265</v>
       </c>
       <c r="P25" t="n">
-        <v>0.30943</v>
+        <v>0.30719</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.31461</v>
+        <v>0.31538</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46024</v>
+        <v>46034</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29513</v>
+        <v>0.30195</v>
       </c>
       <c r="C26" t="n">
-        <v>0.29829</v>
+        <v>0.30519</v>
       </c>
       <c r="D26" t="n">
-        <v>0.30355</v>
+        <v>0.31053</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3096</v>
+        <v>0.31631</v>
       </c>
       <c r="F26" t="n">
-        <v>0.30922</v>
+        <v>0.31501</v>
       </c>
       <c r="G26" t="n">
-        <v>0.30181</v>
+        <v>0.30543</v>
       </c>
       <c r="H26" t="n">
-        <v>0.29453</v>
+        <v>0.29419</v>
       </c>
       <c r="I26" t="n">
-        <v>0.29258</v>
+        <v>0.28928</v>
       </c>
       <c r="J26" t="n">
-        <v>0.29267</v>
+        <v>0.28757</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00296</v>
+        <v>0.28974</v>
       </c>
       <c r="L26" t="n">
-        <v>0.30137</v>
+        <v>0.29448</v>
       </c>
       <c r="M26" t="n">
-        <v>0.30456</v>
+        <v>0.29746</v>
       </c>
       <c r="N26" t="n">
-        <v>0.30728</v>
+        <v>0.30118</v>
       </c>
       <c r="O26" t="n">
-        <v>0.30758</v>
+        <v>0.30396</v>
       </c>
       <c r="P26" t="n">
-        <v>0.30934</v>
+        <v>0.30914</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.31409</v>
+        <v>0.3181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46021</v>
+        <v>46031</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29315</v>
+        <v>0.3019</v>
       </c>
       <c r="C27" t="n">
-        <v>0.29625</v>
+        <v>0.30509</v>
       </c>
       <c r="D27" t="n">
-        <v>0.30151</v>
+        <v>0.31031</v>
       </c>
       <c r="E27" t="n">
-        <v>0.30798</v>
+        <v>0.31576</v>
       </c>
       <c r="F27" t="n">
-        <v>0.30861</v>
+        <v>0.31401</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3028</v>
+        <v>3.04</v>
       </c>
       <c r="H27" t="n">
-        <v>0.29679</v>
+        <v>0.29281</v>
       </c>
       <c r="I27" t="n">
-        <v>0.29542</v>
+        <v>0.28806</v>
       </c>
       <c r="J27" t="n">
-        <v>0.29581</v>
+        <v>0.28647</v>
       </c>
       <c r="K27" t="n">
-        <v>0.29894</v>
+        <v>0.28888</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3037</v>
+        <v>0.29398</v>
       </c>
       <c r="M27" t="n">
-        <v>0.30652</v>
+        <v>0.29715</v>
       </c>
       <c r="N27" t="n">
-        <v>0.30882</v>
+        <v>0.30108</v>
       </c>
       <c r="O27" t="n">
-        <v>0.30904</v>
+        <v>0.30384</v>
       </c>
       <c r="P27" t="n">
-        <v>0.31062</v>
+        <v>0.30899</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.31515</v>
+        <v>0.31792</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46020</v>
+        <v>46030</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2876</v>
+        <v>0.30821</v>
       </c>
       <c r="C28" t="n">
-        <v>0.29097</v>
+        <v>0.31054</v>
       </c>
       <c r="D28" t="n">
-        <v>0.29689</v>
+        <v>0.3141</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3053</v>
+        <v>0.31664</v>
       </c>
       <c r="F28" t="n">
-        <v>0.30877</v>
+        <v>0.31255</v>
       </c>
       <c r="G28" t="n">
-        <v>0.30651</v>
+        <v>0.30126</v>
       </c>
       <c r="H28" t="n">
+        <v>0.29145</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.28857</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.28825</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.29197</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.29833</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.30214</v>
       </c>
-      <c r="I28" t="n">
-        <v>0.30065</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.30068</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.3025</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.30517</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.30672</v>
-      </c>
       <c r="N28" t="n">
-        <v>0.30757</v>
+        <v>0.30589</v>
       </c>
       <c r="O28" t="n">
-        <v>0.30813</v>
+        <v>0.30682</v>
       </c>
       <c r="P28" t="n">
-        <v>0.31032</v>
+        <v>0.30942</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.31563</v>
+        <v>0.3152</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46017</v>
+        <v>46029</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28549</v>
+        <v>0.29568</v>
       </c>
       <c r="C29" t="n">
-        <v>0.28926</v>
+        <v>0.29897</v>
       </c>
       <c r="D29" t="n">
-        <v>0.29587</v>
+        <v>0.3044</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3052</v>
+        <v>0.31043</v>
       </c>
       <c r="F29" t="n">
-        <v>0.30888</v>
+        <v>0.3095</v>
       </c>
       <c r="G29" t="n">
-        <v>0.30608</v>
+        <v>0.30092</v>
       </c>
       <c r="H29" t="n">
-        <v>0.30104</v>
+        <v>0.29251</v>
       </c>
       <c r="I29" t="n">
-        <v>0.29931</v>
+        <v>0.29009</v>
       </c>
       <c r="J29" t="n">
-        <v>0.29926</v>
+        <v>0.28998</v>
       </c>
       <c r="K29" t="n">
-        <v>0.30132</v>
+        <v>0.29351</v>
       </c>
       <c r="L29" t="n">
-        <v>0.30453</v>
+        <v>0.2994</v>
       </c>
       <c r="M29" t="n">
-        <v>0.30642</v>
+        <v>0.30294</v>
       </c>
       <c r="N29" t="n">
-        <v>0.30771</v>
+        <v>0.3064</v>
       </c>
       <c r="O29" t="n">
-        <v>0.30824</v>
+        <v>0.30716</v>
       </c>
       <c r="P29" t="n">
-        <v>0.31035</v>
+        <v>0.30947</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.31556</v>
+        <v>0.31487</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46015</v>
+        <v>46027</v>
       </c>
       <c r="B30" t="n">
-        <v>0.28002</v>
+        <v>0.29574</v>
       </c>
       <c r="C30" t="n">
-        <v>0.28452</v>
+        <v>0.29894</v>
       </c>
       <c r="D30" t="n">
-        <v>0.29242</v>
+        <v>0.30424</v>
       </c>
       <c r="E30" t="n">
-        <v>0.30365</v>
+        <v>0.31018</v>
       </c>
       <c r="F30" t="n">
-        <v>0.30825</v>
+        <v>0.30938</v>
       </c>
       <c r="G30" t="n">
-        <v>0.30525</v>
+        <v>0.30121</v>
       </c>
       <c r="H30" t="n">
-        <v>0.29954</v>
+        <v>0.29322</v>
       </c>
       <c r="I30" t="n">
-        <v>0.29754</v>
+        <v>0.29099</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2974</v>
+        <v>0.29095</v>
       </c>
       <c r="K30" t="n">
-        <v>0.29973</v>
+        <v>0.29441</v>
       </c>
       <c r="L30" t="n">
-        <v>0.30353</v>
+        <v>0.3001</v>
       </c>
       <c r="M30" t="n">
-        <v>0.30582</v>
+        <v>0.30351</v>
       </c>
       <c r="N30" t="n">
-        <v>0.30772</v>
+        <v>0.30669</v>
       </c>
       <c r="O30" t="n">
-        <v>0.30832</v>
+        <v>0.3073</v>
       </c>
       <c r="P30" t="n">
-        <v>0.31047</v>
+        <v>0.30943</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.31569</v>
+        <v>0.31461</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46014</v>
+        <v>46024</v>
       </c>
       <c r="B31" t="n">
-        <v>0.28234</v>
+        <v>0.29513</v>
       </c>
       <c r="C31" t="n">
-        <v>0.28679</v>
+        <v>0.29829</v>
       </c>
       <c r="D31" t="n">
-        <v>0.29451</v>
+        <v>0.30355</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3051</v>
+        <v>0.3096</v>
       </c>
       <c r="F31" t="n">
-        <v>0.30865</v>
+        <v>0.30922</v>
       </c>
       <c r="G31" t="n">
-        <v>0.30419</v>
+        <v>0.30181</v>
       </c>
       <c r="H31" t="n">
-        <v>0.29756</v>
+        <v>0.29453</v>
       </c>
       <c r="I31" t="n">
-        <v>0.29534</v>
+        <v>0.29258</v>
       </c>
       <c r="J31" t="n">
-        <v>0.29517</v>
+        <v>0.29267</v>
       </c>
       <c r="K31" t="n">
-        <v>0.29788</v>
+        <v>2.96</v>
       </c>
       <c r="L31" t="n">
-        <v>0.30239</v>
+        <v>0.30137</v>
       </c>
       <c r="M31" t="n">
-        <v>0.30513</v>
+        <v>0.30456</v>
       </c>
       <c r="N31" t="n">
-        <v>0.30764</v>
+        <v>0.30728</v>
       </c>
       <c r="O31" t="n">
-        <v>0.30833</v>
+        <v>0.30758</v>
       </c>
       <c r="P31" t="n">
-        <v>0.31055</v>
+        <v>0.30934</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.31585</v>
+        <v>0.31409</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46013</v>
+        <v>46021</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28686</v>
+        <v>0.29315</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00291</v>
+        <v>0.29625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.29807</v>
+        <v>0.30151</v>
       </c>
       <c r="E32" t="n">
-        <v>0.30713</v>
+        <v>0.30798</v>
       </c>
       <c r="F32" t="n">
-        <v>0.30886</v>
+        <v>0.30861</v>
       </c>
       <c r="G32" t="n">
-        <v>0.30235</v>
+        <v>0.3028</v>
       </c>
       <c r="H32" t="n">
-        <v>0.29494</v>
+        <v>0.29679</v>
       </c>
       <c r="I32" t="n">
-        <v>0.29301</v>
+        <v>0.29542</v>
       </c>
       <c r="J32" t="n">
-        <v>0.29326</v>
+        <v>0.29581</v>
       </c>
       <c r="K32" t="n">
-        <v>0.29689</v>
+        <v>0.29894</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3027</v>
+        <v>0.3037</v>
       </c>
       <c r="M32" t="n">
-        <v>0.30629</v>
+        <v>0.30652</v>
       </c>
       <c r="N32" t="n">
-        <v>0.31037</v>
+        <v>0.30882</v>
       </c>
       <c r="O32" t="n">
-        <v>0.3117</v>
+        <v>0.30904</v>
       </c>
       <c r="P32" t="n">
-        <v>0.31452</v>
+        <v>0.31062</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.32051</v>
+        <v>0.31515</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46010</v>
+        <v>46020</v>
       </c>
       <c r="B33" t="n">
-        <v>0.29549</v>
+        <v>0.2876</v>
       </c>
       <c r="C33" t="n">
-        <v>0.29878</v>
+        <v>0.29097</v>
       </c>
       <c r="D33" t="n">
-        <v>0.30419</v>
+        <v>0.29689</v>
       </c>
       <c r="E33" t="n">
-        <v>0.31003</v>
+        <v>0.3053</v>
       </c>
       <c r="F33" t="n">
-        <v>0.30869</v>
+        <v>0.30877</v>
       </c>
       <c r="G33" t="n">
-        <v>0.29946</v>
+        <v>0.30651</v>
       </c>
       <c r="H33" t="n">
-        <v>0.29105</v>
+        <v>0.30214</v>
       </c>
       <c r="I33" t="n">
-        <v>0.28924</v>
+        <v>0.30065</v>
       </c>
       <c r="J33" t="n">
-        <v>0.28975</v>
+        <v>0.30068</v>
       </c>
       <c r="K33" t="n">
-        <v>0.29408</v>
+        <v>0.3025</v>
       </c>
       <c r="L33" t="n">
-        <v>0.30094</v>
+        <v>0.30517</v>
       </c>
       <c r="M33" t="n">
-        <v>0.30516</v>
+        <v>0.30672</v>
       </c>
       <c r="N33" t="n">
-        <v>0.31016</v>
+        <v>0.30757</v>
       </c>
       <c r="O33" t="n">
-        <v>0.3117</v>
+        <v>0.30813</v>
       </c>
       <c r="P33" t="n">
-        <v>0.31472</v>
+        <v>0.31032</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.32091</v>
+        <v>0.31563</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46009</v>
+        <v>46017</v>
       </c>
       <c r="B34" t="n">
-        <v>0.29754</v>
+        <v>0.28549</v>
       </c>
       <c r="C34" t="n">
-        <v>0.30054</v>
+        <v>0.28926</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3054</v>
+        <v>0.29587</v>
       </c>
       <c r="E34" t="n">
-        <v>0.31028</v>
+        <v>0.3052</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3082</v>
+        <v>0.30888</v>
       </c>
       <c r="G34" t="n">
-        <v>0.29846</v>
+        <v>0.30608</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2898</v>
+        <v>0.30104</v>
       </c>
       <c r="I34" t="n">
-        <v>0.28791</v>
+        <v>0.29931</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2884</v>
+        <v>0.29926</v>
       </c>
       <c r="K34" t="n">
-        <v>0.29276</v>
+        <v>0.30132</v>
       </c>
       <c r="L34" t="n">
-        <v>0.29964</v>
+        <v>0.30453</v>
       </c>
       <c r="M34" t="n">
-        <v>0.30391</v>
+        <v>0.30642</v>
       </c>
       <c r="N34" t="n">
-        <v>0.30929</v>
+        <v>0.30771</v>
       </c>
       <c r="O34" t="n">
-        <v>0.31137</v>
+        <v>0.30824</v>
       </c>
       <c r="P34" t="n">
-        <v>0.31506</v>
+        <v>0.31035</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.32205</v>
+        <v>0.31556</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B35" t="n">
-        <v>0.30543</v>
+        <v>0.28002</v>
       </c>
       <c r="C35" t="n">
-        <v>0.30724</v>
+        <v>0.28452</v>
       </c>
       <c r="D35" t="n">
-        <v>0.30992</v>
+        <v>0.29242</v>
       </c>
       <c r="E35" t="n">
-        <v>0.31134</v>
+        <v>0.30365</v>
       </c>
       <c r="F35" t="n">
-        <v>0.30709</v>
+        <v>0.30825</v>
       </c>
       <c r="G35" t="n">
-        <v>0.29674</v>
+        <v>0.30525</v>
       </c>
       <c r="H35" t="n">
-        <v>0.28886</v>
+        <v>0.29954</v>
       </c>
       <c r="I35" t="n">
-        <v>0.28765</v>
+        <v>0.29754</v>
       </c>
       <c r="J35" t="n">
-        <v>0.28854</v>
+        <v>0.2974</v>
       </c>
       <c r="K35" t="n">
-        <v>0.29298</v>
+        <v>0.29973</v>
       </c>
       <c r="L35" t="n">
-        <v>0.29965</v>
+        <v>0.30353</v>
       </c>
       <c r="M35" t="n">
-        <v>0.30374</v>
+        <v>0.30582</v>
       </c>
       <c r="N35" t="n">
-        <v>0.30876</v>
+        <v>0.30772</v>
       </c>
       <c r="O35" t="n">
-        <v>0.31068</v>
+        <v>0.30832</v>
       </c>
       <c r="P35" t="n">
-        <v>0.31415</v>
+        <v>0.31047</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.32087</v>
+        <v>0.31569</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="B36" t="n">
-        <v>0.31434</v>
+        <v>0.28234</v>
       </c>
       <c r="C36" t="n">
-        <v>0.31471</v>
+        <v>0.28679</v>
       </c>
       <c r="D36" t="n">
-        <v>0.31476</v>
+        <v>0.29451</v>
       </c>
       <c r="E36" t="n">
-        <v>0.31207</v>
+        <v>0.3051</v>
       </c>
       <c r="F36" t="n">
-        <v>0.30535</v>
+        <v>0.30865</v>
       </c>
       <c r="G36" t="n">
-        <v>0.29448</v>
+        <v>0.30419</v>
       </c>
       <c r="H36" t="n">
-        <v>0.28762</v>
+        <v>0.29756</v>
       </c>
       <c r="I36" t="n">
-        <v>0.28719</v>
+        <v>0.29534</v>
       </c>
       <c r="J36" t="n">
-        <v>0.28853</v>
+        <v>0.29517</v>
       </c>
       <c r="K36" t="n">
-        <v>0.29301</v>
+        <v>0.29788</v>
       </c>
       <c r="L36" t="n">
-        <v>0.29933</v>
+        <v>0.30239</v>
       </c>
       <c r="M36" t="n">
-        <v>0.30315</v>
+        <v>0.30513</v>
       </c>
       <c r="N36" t="n">
-        <v>0.30803</v>
+        <v>0.30764</v>
       </c>
       <c r="O36" t="n">
-        <v>0.31028</v>
+        <v>0.30833</v>
       </c>
       <c r="P36" t="n">
-        <v>0.31416</v>
+        <v>0.31055</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.32135</v>
+        <v>0.31585</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46006</v>
+        <v>46013</v>
       </c>
       <c r="B37" t="n">
-        <v>0.32295</v>
+        <v>0.28686</v>
       </c>
       <c r="C37" t="n">
-        <v>0.32172</v>
+        <v>2.91</v>
       </c>
       <c r="D37" t="n">
-        <v>0.31891</v>
+        <v>0.29807</v>
       </c>
       <c r="E37" t="n">
-        <v>0.31178</v>
+        <v>0.30713</v>
       </c>
       <c r="F37" t="n">
-        <v>0.30254</v>
+        <v>0.30886</v>
       </c>
       <c r="G37" t="n">
-        <v>0.29149</v>
+        <v>0.30235</v>
       </c>
       <c r="H37" t="n">
-        <v>0.28629</v>
+        <v>0.29494</v>
       </c>
       <c r="I37" t="n">
-        <v>0.28704</v>
+        <v>0.29301</v>
       </c>
       <c r="J37" t="n">
-        <v>0.28901</v>
+        <v>0.29326</v>
       </c>
       <c r="K37" t="n">
-        <v>0.29354</v>
+        <v>0.29689</v>
       </c>
       <c r="L37" t="n">
-        <v>0.29936</v>
+        <v>0.3027</v>
       </c>
       <c r="M37" t="n">
-        <v>0.30276</v>
+        <v>0.30629</v>
       </c>
       <c r="N37" t="n">
-        <v>0.30657</v>
+        <v>0.31037</v>
       </c>
       <c r="O37" t="n">
-        <v>0.30804</v>
+        <v>0.3117</v>
       </c>
       <c r="P37" t="n">
-        <v>0.31093</v>
+        <v>0.31452</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3169</v>
+        <v>0.32051</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="B38" t="n">
-        <v>0.32937</v>
+        <v>0.29549</v>
       </c>
       <c r="C38" t="n">
-        <v>0.32647</v>
+        <v>0.29878</v>
       </c>
       <c r="D38" t="n">
-        <v>0.32069</v>
+        <v>0.30419</v>
       </c>
       <c r="E38" t="n">
-        <v>0.30919</v>
+        <v>0.31003</v>
       </c>
       <c r="F38" t="n">
-        <v>0.29787</v>
+        <v>0.30869</v>
       </c>
       <c r="G38" t="n">
-        <v>0.28746</v>
+        <v>0.29946</v>
       </c>
       <c r="H38" t="n">
-        <v>0.28475</v>
+        <v>0.29105</v>
       </c>
       <c r="I38" t="n">
-        <v>0.28714</v>
+        <v>0.28924</v>
       </c>
       <c r="J38" t="n">
-        <v>0.29002</v>
+        <v>0.28975</v>
       </c>
       <c r="K38" t="n">
-        <v>0.29462</v>
+        <v>0.29408</v>
       </c>
       <c r="L38" t="n">
-        <v>0.29974</v>
+        <v>0.30094</v>
       </c>
       <c r="M38" t="n">
-        <v>0.30262</v>
+        <v>0.30516</v>
       </c>
       <c r="N38" t="n">
-        <v>0.30558</v>
+        <v>0.31016</v>
       </c>
       <c r="O38" t="n">
-        <v>0.3067</v>
+        <v>0.3117</v>
       </c>
       <c r="P38" t="n">
-        <v>0.3091</v>
+        <v>0.31472</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.31443</v>
+        <v>0.32091</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46002</v>
+        <v>46009</v>
       </c>
       <c r="B39" t="n">
-        <v>0.33233</v>
+        <v>0.29754</v>
       </c>
       <c r="C39" t="n">
-        <v>0.32801</v>
+        <v>0.30054</v>
       </c>
       <c r="D39" t="n">
-        <v>0.31972</v>
+        <v>0.3054</v>
       </c>
       <c r="E39" t="n">
-        <v>0.30475</v>
+        <v>0.31028</v>
       </c>
       <c r="F39" t="n">
-        <v>0.29216</v>
+        <v>0.3082</v>
       </c>
       <c r="G39" t="n">
-        <v>0.28301</v>
+        <v>0.29846</v>
       </c>
       <c r="H39" t="n">
-        <v>0.28299</v>
+        <v>0.2898</v>
       </c>
       <c r="I39" t="n">
-        <v>0.28714</v>
+        <v>0.28791</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2911</v>
+        <v>0.2884</v>
       </c>
       <c r="K39" t="n">
-        <v>0.29584</v>
+        <v>0.29276</v>
       </c>
       <c r="L39" t="n">
-        <v>0.30026</v>
+        <v>0.29964</v>
       </c>
       <c r="M39" t="n">
-        <v>0.30268</v>
+        <v>0.30391</v>
       </c>
       <c r="N39" t="n">
-        <v>0.30536</v>
+        <v>0.30929</v>
       </c>
       <c r="O39" t="n">
-        <v>0.30681</v>
+        <v>0.31137</v>
       </c>
       <c r="P39" t="n">
-        <v>0.30943</v>
+        <v>0.31506</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.31495</v>
+        <v>0.32205</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46001</v>
+        <v>46008</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3256</v>
+        <v>0.30543</v>
       </c>
       <c r="C40" t="n">
-        <v>0.32242</v>
+        <v>0.30724</v>
       </c>
       <c r="D40" t="n">
-        <v>0.31615</v>
+        <v>0.30992</v>
       </c>
       <c r="E40" t="n">
-        <v>0.30406</v>
+        <v>0.31134</v>
       </c>
       <c r="F40" t="n">
-        <v>0.29266</v>
+        <v>0.30709</v>
       </c>
       <c r="G40" t="n">
-        <v>0.28282</v>
+        <v>0.29674</v>
       </c>
       <c r="H40" t="n">
-        <v>0.28135</v>
+        <v>0.28886</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2848</v>
+        <v>0.28765</v>
       </c>
       <c r="J40" t="n">
-        <v>0.28843</v>
+        <v>0.28854</v>
       </c>
       <c r="K40" t="n">
-        <v>0.29351</v>
+        <v>0.29298</v>
       </c>
       <c r="L40" t="n">
-        <v>0.29887</v>
+        <v>0.29965</v>
       </c>
       <c r="M40" t="n">
-        <v>0.30192</v>
+        <v>0.30374</v>
       </c>
       <c r="N40" t="n">
-        <v>0.30545</v>
+        <v>0.30876</v>
       </c>
       <c r="O40" t="n">
-        <v>0.30691</v>
+        <v>0.31068</v>
       </c>
       <c r="P40" t="n">
-        <v>0.3095</v>
+        <v>0.31415</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.31496</v>
+        <v>0.32087</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="B41" t="n">
-        <v>0.31629</v>
+        <v>0.31434</v>
       </c>
       <c r="C41" t="n">
-        <v>0.31462</v>
+        <v>0.31471</v>
       </c>
       <c r="D41" t="n">
-        <v>0.31101</v>
+        <v>0.31476</v>
       </c>
       <c r="E41" t="n">
-        <v>0.30271</v>
+        <v>0.31207</v>
       </c>
       <c r="F41" t="n">
-        <v>0.29291</v>
+        <v>0.30535</v>
       </c>
       <c r="G41" t="n">
-        <v>0.28224</v>
+        <v>0.29448</v>
       </c>
       <c r="H41" t="n">
-        <v>0.27927</v>
+        <v>0.28762</v>
       </c>
       <c r="I41" t="n">
-        <v>0.28223</v>
+        <v>0.28719</v>
       </c>
       <c r="J41" t="n">
-        <v>0.28578</v>
+        <v>0.28853</v>
       </c>
       <c r="K41" t="n">
-        <v>0.29163</v>
+        <v>0.29301</v>
       </c>
       <c r="L41" t="n">
-        <v>0.29853</v>
+        <v>0.29933</v>
       </c>
       <c r="M41" t="n">
-        <v>0.30261</v>
+        <v>0.30315</v>
       </c>
       <c r="N41" t="n">
-        <v>0.30775</v>
+        <v>0.30803</v>
       </c>
       <c r="O41" t="n">
-        <v>0.30945</v>
+        <v>0.31028</v>
       </c>
       <c r="P41" t="n">
-        <v>0.31217</v>
+        <v>0.31416</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.31776</v>
+        <v>0.32135</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45999</v>
+        <v>46006</v>
       </c>
       <c r="B42" t="n">
-        <v>0.31737</v>
+        <v>0.32295</v>
       </c>
       <c r="C42" t="n">
-        <v>0.31554</v>
+        <v>0.32172</v>
       </c>
       <c r="D42" t="n">
-        <v>0.31164</v>
+        <v>0.31891</v>
       </c>
       <c r="E42" t="n">
-        <v>0.30293</v>
+        <v>0.31178</v>
       </c>
       <c r="F42" t="n">
-        <v>0.29293</v>
+        <v>0.30254</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2823</v>
+        <v>0.29149</v>
       </c>
       <c r="H42" t="n">
-        <v>0.27948</v>
+        <v>0.28629</v>
       </c>
       <c r="I42" t="n">
-        <v>0.28252</v>
+        <v>0.28704</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2861</v>
+        <v>0.28901</v>
       </c>
       <c r="K42" t="n">
-        <v>0.29191</v>
+        <v>0.29354</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2987</v>
+        <v>0.29936</v>
       </c>
       <c r="M42" t="n">
-        <v>0.3027</v>
+        <v>0.30276</v>
       </c>
       <c r="N42" t="n">
-        <v>0.30774</v>
+        <v>0.30657</v>
       </c>
       <c r="O42" t="n">
-        <v>0.30944</v>
+        <v>0.30804</v>
       </c>
       <c r="P42" t="n">
-        <v>0.31217</v>
+        <v>0.31093</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.31778</v>
+        <v>0.3169</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45996</v>
+        <v>46003</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31936</v>
+        <v>0.32937</v>
       </c>
       <c r="C43" t="n">
-        <v>0.31728</v>
+        <v>0.32647</v>
       </c>
       <c r="D43" t="n">
-        <v>0.31294</v>
+        <v>0.32069</v>
       </c>
       <c r="E43" t="n">
-        <v>0.30352</v>
+        <v>0.30919</v>
       </c>
       <c r="F43" t="n">
-        <v>0.29312</v>
+        <v>0.29787</v>
       </c>
       <c r="G43" t="n">
-        <v>0.28246</v>
+        <v>0.28746</v>
       </c>
       <c r="H43" t="n">
-        <v>0.27992</v>
+        <v>0.28475</v>
       </c>
       <c r="I43" t="n">
-        <v>0.28322</v>
+        <v>0.28714</v>
       </c>
       <c r="J43" t="n">
-        <v>0.28696</v>
+        <v>0.29002</v>
       </c>
       <c r="K43" t="n">
-        <v>0.29284</v>
+        <v>0.29462</v>
       </c>
       <c r="L43" t="n">
-        <v>0.2996</v>
+        <v>0.29974</v>
       </c>
       <c r="M43" t="n">
-        <v>0.30358</v>
+        <v>0.30262</v>
       </c>
       <c r="N43" t="n">
-        <v>0.30843</v>
+        <v>0.30558</v>
       </c>
       <c r="O43" t="n">
-        <v>0.30988</v>
+        <v>0.3067</v>
       </c>
       <c r="P43" t="n">
-        <v>0.31226</v>
+        <v>0.3091</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.31745</v>
+        <v>0.31443</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45995</v>
+        <v>46002</v>
       </c>
       <c r="B44" t="n">
-        <v>0.31542</v>
+        <v>0.33233</v>
       </c>
       <c r="C44" t="n">
-        <v>0.31385</v>
+        <v>0.32801</v>
       </c>
       <c r="D44" t="n">
-        <v>0.31045</v>
+        <v>0.31972</v>
       </c>
       <c r="E44" t="n">
-        <v>0.30257</v>
+        <v>0.30475</v>
       </c>
       <c r="F44" t="n">
-        <v>0.29318</v>
+        <v>0.29216</v>
       </c>
       <c r="G44" t="n">
-        <v>0.28291</v>
+        <v>0.28301</v>
       </c>
       <c r="H44" t="n">
-        <v>0.28017</v>
+        <v>0.28299</v>
       </c>
       <c r="I44" t="n">
-        <v>0.28325</v>
+        <v>0.28714</v>
       </c>
       <c r="J44" t="n">
-        <v>0.28687</v>
+        <v>0.2911</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2927</v>
+        <v>0.29584</v>
       </c>
       <c r="L44" t="n">
-        <v>0.29952</v>
+        <v>0.30026</v>
       </c>
       <c r="M44" t="n">
-        <v>0.30354</v>
+        <v>0.30268</v>
       </c>
       <c r="N44" t="n">
-        <v>0.30847</v>
+        <v>0.30536</v>
       </c>
       <c r="O44" t="n">
-        <v>0.3099</v>
+        <v>0.30681</v>
       </c>
       <c r="P44" t="n">
-        <v>0.31226</v>
+        <v>0.30943</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.31742</v>
+        <v>0.31495</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="B45" t="n">
-        <v>0.31523</v>
+        <v>0.3256</v>
       </c>
       <c r="C45" t="n">
-        <v>0.31377</v>
+        <v>0.32242</v>
       </c>
       <c r="D45" t="n">
-        <v>0.31058</v>
+        <v>0.31615</v>
       </c>
       <c r="E45" t="n">
-        <v>0.30303</v>
+        <v>0.30406</v>
       </c>
       <c r="F45" t="n">
-        <v>0.29384</v>
+        <v>0.29266</v>
       </c>
       <c r="G45" t="n">
-        <v>0.28363</v>
+        <v>0.28282</v>
       </c>
       <c r="H45" t="n">
-        <v>0.28082</v>
+        <v>0.28135</v>
       </c>
       <c r="I45" t="n">
-        <v>0.28379</v>
+        <v>0.2848</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2873</v>
+        <v>0.28843</v>
       </c>
       <c r="K45" t="n">
-        <v>0.29307</v>
+        <v>0.29351</v>
       </c>
       <c r="L45" t="n">
-        <v>0.29985</v>
+        <v>0.29887</v>
       </c>
       <c r="M45" t="n">
-        <v>0.30384</v>
+        <v>0.30192</v>
       </c>
       <c r="N45" t="n">
-        <v>0.30863</v>
+        <v>0.30545</v>
       </c>
       <c r="O45" t="n">
-        <v>0.30993</v>
+        <v>0.30691</v>
       </c>
       <c r="P45" t="n">
-        <v>0.31217</v>
+        <v>0.3095</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.3172</v>
+        <v>0.31496</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B46" t="n">
-        <v>0.32123</v>
+        <v>0.31629</v>
       </c>
       <c r="C46" t="n">
-        <v>0.31902</v>
+        <v>0.31462</v>
       </c>
       <c r="D46" t="n">
-        <v>0.31446</v>
+        <v>0.31101</v>
       </c>
       <c r="E46" t="n">
-        <v>0.30486</v>
+        <v>0.30271</v>
       </c>
       <c r="F46" t="n">
-        <v>0.29461</v>
+        <v>0.29291</v>
       </c>
       <c r="G46" t="n">
-        <v>0.28444</v>
+        <v>0.28224</v>
       </c>
       <c r="H46" t="n">
-        <v>0.28216</v>
+        <v>0.27927</v>
       </c>
       <c r="I46" t="n">
-        <v>0.28533</v>
+        <v>0.28223</v>
       </c>
       <c r="J46" t="n">
-        <v>0.28889</v>
+        <v>0.28578</v>
       </c>
       <c r="K46" t="n">
-        <v>0.29439</v>
+        <v>0.29163</v>
       </c>
       <c r="L46" t="n">
-        <v>0.30061</v>
+        <v>0.29853</v>
       </c>
       <c r="M46" t="n">
-        <v>0.30423</v>
+        <v>0.30261</v>
       </c>
       <c r="N46" t="n">
-        <v>0.30847</v>
+        <v>0.30775</v>
       </c>
       <c r="O46" t="n">
-        <v>0.30977</v>
+        <v>0.30945</v>
       </c>
       <c r="P46" t="n">
-        <v>0.3121</v>
+        <v>0.31217</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.31724</v>
+        <v>0.31776</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="B47" t="n">
-        <v>0.32009</v>
+        <v>0.31737</v>
       </c>
       <c r="C47" t="n">
-        <v>0.31634</v>
+        <v>0.31554</v>
       </c>
       <c r="D47" t="n">
-        <v>0.30924</v>
+        <v>0.31164</v>
       </c>
       <c r="E47" t="n">
-        <v>0.29674</v>
+        <v>0.30293</v>
       </c>
       <c r="F47" t="n">
-        <v>0.28672</v>
+        <v>0.29293</v>
       </c>
       <c r="G47" t="n">
-        <v>0.28038</v>
+        <v>0.2823</v>
       </c>
       <c r="H47" t="n">
-        <v>0.28304</v>
+        <v>0.27948</v>
       </c>
       <c r="I47" t="n">
-        <v>0.28889</v>
+        <v>0.28252</v>
       </c>
       <c r="J47" t="n">
-        <v>0.29391</v>
+        <v>0.2861</v>
       </c>
       <c r="K47" t="n">
-        <v>0.29915</v>
+        <v>0.29191</v>
       </c>
       <c r="L47" t="n">
-        <v>0.30363</v>
+        <v>0.2987</v>
       </c>
       <c r="M47" t="n">
-        <v>0.30609</v>
+        <v>0.3027</v>
       </c>
       <c r="N47" t="n">
-        <v>0.30894</v>
+        <v>0.30774</v>
       </c>
       <c r="O47" t="n">
-        <v>0.31018</v>
+        <v>0.30944</v>
       </c>
       <c r="P47" t="n">
-        <v>0.31225</v>
+        <v>0.31217</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.31703</v>
+        <v>0.31778</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45989</v>
+        <v>45996</v>
       </c>
       <c r="B48" t="n">
-        <v>0.33554</v>
+        <v>0.31936</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3286</v>
+        <v>0.31728</v>
       </c>
       <c r="D48" t="n">
-        <v>0.31587</v>
+        <v>0.31294</v>
       </c>
       <c r="E48" t="n">
-        <v>0.29528</v>
+        <v>0.30352</v>
       </c>
       <c r="F48" t="n">
-        <v>0.28176</v>
+        <v>0.29312</v>
       </c>
       <c r="G48" t="n">
-        <v>0.27716</v>
+        <v>0.28246</v>
       </c>
       <c r="H48" t="n">
-        <v>0.28442</v>
+        <v>0.27992</v>
       </c>
       <c r="I48" t="n">
-        <v>0.29304</v>
+        <v>0.28322</v>
       </c>
       <c r="J48" t="n">
-        <v>0.29959</v>
+        <v>0.28696</v>
       </c>
       <c r="K48" t="n">
-        <v>0.30458</v>
+        <v>0.29284</v>
       </c>
       <c r="L48" t="n">
-        <v>0.30714</v>
+        <v>0.2996</v>
       </c>
       <c r="M48" t="n">
-        <v>0.30825</v>
+        <v>0.30358</v>
       </c>
       <c r="N48" t="n">
-        <v>0.3093</v>
+        <v>0.30843</v>
       </c>
       <c r="O48" t="n">
-        <v>0.31044</v>
+        <v>0.30988</v>
       </c>
       <c r="P48" t="n">
-        <v>0.31233</v>
+        <v>0.31226</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.31685</v>
+        <v>0.31745</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="B49" t="n">
-        <v>0.34945</v>
+        <v>0.31542</v>
       </c>
       <c r="C49" t="n">
-        <v>0.33896</v>
+        <v>0.31385</v>
       </c>
       <c r="D49" t="n">
-        <v>0.31999</v>
+        <v>0.31045</v>
       </c>
       <c r="E49" t="n">
-        <v>0.29069</v>
+        <v>0.30257</v>
       </c>
       <c r="F49" t="n">
-        <v>0.27388</v>
+        <v>0.29318</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2724</v>
+        <v>0.28291</v>
       </c>
       <c r="H49" t="n">
-        <v>0.28624</v>
+        <v>0.28017</v>
       </c>
       <c r="I49" t="n">
-        <v>0.29869</v>
+        <v>0.28325</v>
       </c>
       <c r="J49" t="n">
-        <v>0.30731</v>
+        <v>0.28687</v>
       </c>
       <c r="K49" t="n">
-        <v>0.31211</v>
+        <v>0.2927</v>
       </c>
       <c r="L49" t="n">
-        <v>0.31233</v>
+        <v>0.29952</v>
       </c>
       <c r="M49" t="n">
-        <v>0.31174</v>
+        <v>0.30354</v>
       </c>
       <c r="N49" t="n">
-        <v>0.3105</v>
+        <v>0.30847</v>
       </c>
       <c r="O49" t="n">
-        <v>0.31169</v>
+        <v>0.3099</v>
       </c>
       <c r="P49" t="n">
-        <v>0.3136</v>
+        <v>0.31226</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.31817</v>
+        <v>0.31742</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45987</v>
+        <v>45994</v>
       </c>
       <c r="B50" t="n">
-        <v>0.36244</v>
+        <v>0.31523</v>
       </c>
       <c r="C50" t="n">
-        <v>0.34987</v>
+        <v>0.31377</v>
       </c>
       <c r="D50" t="n">
-        <v>0.32719</v>
+        <v>0.31058</v>
       </c>
       <c r="E50" t="n">
-        <v>0.29242</v>
+        <v>0.30303</v>
       </c>
       <c r="F50" t="n">
-        <v>0.27298</v>
+        <v>0.29384</v>
       </c>
       <c r="G50" t="n">
-        <v>0.27248</v>
+        <v>0.28363</v>
       </c>
       <c r="H50" t="n">
-        <v>0.28959</v>
+        <v>0.28082</v>
       </c>
       <c r="I50" t="n">
+        <v>0.28379</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2873</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.29307</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.29985</v>
+      </c>
+      <c r="M50" t="n">
         <v>0.30384</v>
       </c>
-      <c r="J50" t="n">
-        <v>0.31334</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.31798</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.31705</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.31558</v>
-      </c>
       <c r="N50" t="n">
-        <v>0.31298</v>
+        <v>0.30863</v>
       </c>
       <c r="O50" t="n">
-        <v>0.31428</v>
+        <v>0.30993</v>
       </c>
       <c r="P50" t="n">
-        <v>0.31649</v>
+        <v>0.31217</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.32152</v>
+        <v>0.3172</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45986</v>
+        <v>45993</v>
       </c>
       <c r="B51" t="n">
-        <v>0.37226</v>
+        <v>0.32123</v>
       </c>
       <c r="C51" t="n">
-        <v>0.35818</v>
+        <v>0.31902</v>
       </c>
       <c r="D51" t="n">
-        <v>0.33278</v>
+        <v>0.31446</v>
       </c>
       <c r="E51" t="n">
-        <v>0.29392</v>
+        <v>0.30486</v>
       </c>
       <c r="F51" t="n">
-        <v>0.27235</v>
+        <v>0.29461</v>
       </c>
       <c r="G51" t="n">
-        <v>0.27201</v>
+        <v>0.28444</v>
       </c>
       <c r="H51" t="n">
-        <v>0.29105</v>
+        <v>0.28216</v>
       </c>
       <c r="I51" t="n">
-        <v>0.30674</v>
+        <v>0.28533</v>
       </c>
       <c r="J51" t="n">
-        <v>0.31714</v>
+        <v>0.28889</v>
       </c>
       <c r="K51" t="n">
-        <v>0.32204</v>
+        <v>0.29439</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3207</v>
+        <v>0.30061</v>
       </c>
       <c r="M51" t="n">
-        <v>0.3189</v>
+        <v>0.30423</v>
       </c>
       <c r="N51" t="n">
-        <v>0.31583</v>
+        <v>0.30847</v>
       </c>
       <c r="O51" t="n">
-        <v>0.31708</v>
+        <v>0.30977</v>
       </c>
       <c r="P51" t="n">
-        <v>0.31915</v>
+        <v>0.3121</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.32401</v>
+        <v>0.31724</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45985</v>
+        <v>45992</v>
       </c>
       <c r="B52" t="n">
-        <v>0.42591</v>
+        <v>0.32009</v>
       </c>
       <c r="C52" t="n">
-        <v>0.40451</v>
+        <v>0.31634</v>
       </c>
       <c r="D52" t="n">
-        <v>0.36573</v>
+        <v>0.30924</v>
       </c>
       <c r="E52" t="n">
-        <v>0.30588</v>
+        <v>0.29674</v>
       </c>
       <c r="F52" t="n">
-        <v>0.27193</v>
+        <v>0.28672</v>
       </c>
       <c r="G52" t="n">
-        <v>0.26912</v>
+        <v>0.28038</v>
       </c>
       <c r="H52" t="n">
-        <v>0.29352</v>
+        <v>0.28304</v>
       </c>
       <c r="I52" t="n">
-        <v>0.31314</v>
+        <v>0.28889</v>
       </c>
       <c r="J52" t="n">
-        <v>0.32587</v>
+        <v>0.29391</v>
       </c>
       <c r="K52" t="n">
-        <v>0.00331</v>
+        <v>0.29915</v>
       </c>
       <c r="L52" t="n">
-        <v>0.32768</v>
+        <v>0.30363</v>
       </c>
       <c r="M52" t="n">
-        <v>0.32426</v>
+        <v>0.30609</v>
       </c>
       <c r="N52" t="n">
-        <v>0.31821</v>
+        <v>0.30894</v>
       </c>
       <c r="O52" t="n">
-        <v>0.3186</v>
+        <v>0.31018</v>
       </c>
       <c r="P52" t="n">
-        <v>0.31961</v>
+        <v>0.31225</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.32323</v>
+        <v>0.31703</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4554</v>
+        <v>0.33554</v>
       </c>
       <c r="C53" t="n">
-        <v>0.43044</v>
+        <v>0.3286</v>
       </c>
       <c r="D53" t="n">
-        <v>0.38506</v>
+        <v>0.31587</v>
       </c>
       <c r="E53" t="n">
-        <v>0.31453</v>
+        <v>0.29528</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2737</v>
+        <v>0.28176</v>
       </c>
       <c r="G53" t="n">
-        <v>0.26809</v>
+        <v>0.27716</v>
       </c>
       <c r="H53" t="n">
-        <v>0.29352</v>
+        <v>0.28442</v>
       </c>
       <c r="I53" t="n">
-        <v>0.31314</v>
+        <v>0.29304</v>
       </c>
       <c r="J53" t="n">
-        <v>0.32587</v>
+        <v>0.29959</v>
       </c>
       <c r="K53" t="n">
-        <v>0.00331</v>
+        <v>0.30458</v>
       </c>
       <c r="L53" t="n">
-        <v>0.32768</v>
+        <v>0.30714</v>
       </c>
       <c r="M53" t="n">
-        <v>0.32426</v>
+        <v>0.30825</v>
       </c>
       <c r="N53" t="n">
-        <v>0.31821</v>
+        <v>0.3093</v>
       </c>
       <c r="O53" t="n">
-        <v>0.3186</v>
+        <v>0.31044</v>
       </c>
       <c r="P53" t="n">
-        <v>0.31961</v>
+        <v>0.31233</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.32323</v>
+        <v>0.31685</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B54" t="n">
-        <v>0.47855</v>
+        <v>0.34945</v>
       </c>
       <c r="C54" t="n">
-        <v>0.45092</v>
+        <v>0.33896</v>
       </c>
       <c r="D54" t="n">
-        <v>0.40059</v>
+        <v>0.31999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.32194</v>
+        <v>0.29069</v>
       </c>
       <c r="F54" t="n">
-        <v>0.27572</v>
+        <v>0.27388</v>
       </c>
       <c r="G54" t="n">
-        <v>0.26768</v>
+        <v>0.2724</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2928</v>
+        <v>0.28624</v>
       </c>
       <c r="I54" t="n">
-        <v>0.31429</v>
+        <v>0.29869</v>
       </c>
       <c r="J54" t="n">
-        <v>0.32851</v>
+        <v>0.30731</v>
       </c>
       <c r="K54" t="n">
-        <v>0.33391</v>
+        <v>0.31211</v>
       </c>
       <c r="L54" t="n">
-        <v>0.32933</v>
+        <v>0.31233</v>
       </c>
       <c r="M54" t="n">
-        <v>0.32487</v>
+        <v>0.31174</v>
       </c>
       <c r="N54" t="n">
-        <v>0.31737</v>
+        <v>0.3105</v>
       </c>
       <c r="O54" t="n">
-        <v>0.31819</v>
+        <v>0.31169</v>
       </c>
       <c r="P54" t="n">
-        <v>0.31973</v>
+        <v>0.3136</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.32397</v>
+        <v>0.31817</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B55" t="n">
-        <v>0.47497</v>
+        <v>0.36244</v>
       </c>
       <c r="C55" t="n">
-        <v>0.44784</v>
+        <v>0.34987</v>
       </c>
       <c r="D55" t="n">
-        <v>0.39845</v>
+        <v>0.32719</v>
       </c>
       <c r="E55" t="n">
-        <v>0.32143</v>
+        <v>0.29242</v>
       </c>
       <c r="F55" t="n">
-        <v>0.27647</v>
+        <v>0.27298</v>
       </c>
       <c r="G55" t="n">
-        <v>0.26884</v>
+        <v>0.27248</v>
       </c>
       <c r="H55" t="n">
-        <v>0.29269</v>
+        <v>0.28959</v>
       </c>
       <c r="I55" t="n">
-        <v>0.31302</v>
+        <v>0.30384</v>
       </c>
       <c r="J55" t="n">
-        <v>0.3266</v>
+        <v>0.31334</v>
       </c>
       <c r="K55" t="n">
-        <v>0.33136</v>
+        <v>0.31798</v>
       </c>
       <c r="L55" t="n">
-        <v>0.32614</v>
+        <v>0.31705</v>
       </c>
       <c r="M55" t="n">
-        <v>0.32142</v>
+        <v>0.31558</v>
       </c>
       <c r="N55" t="n">
-        <v>0.3145</v>
+        <v>0.31298</v>
       </c>
       <c r="O55" t="n">
-        <v>0.31678</v>
+        <v>0.31428</v>
       </c>
       <c r="P55" t="n">
-        <v>0.32019</v>
+        <v>0.31649</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.32669</v>
+        <v>0.32152</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="B56" t="n">
-        <v>0.47171</v>
+        <v>0.37226</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4448</v>
+        <v>0.35818</v>
       </c>
       <c r="D56" t="n">
-        <v>0.39594</v>
+        <v>0.33278</v>
       </c>
       <c r="E56" t="n">
-        <v>0.32037</v>
+        <v>0.29392</v>
       </c>
       <c r="F56" t="n">
-        <v>0.27734</v>
+        <v>0.27235</v>
       </c>
       <c r="G56" t="n">
-        <v>0.27193</v>
+        <v>0.27201</v>
       </c>
       <c r="H56" t="n">
-        <v>0.29669</v>
+        <v>0.29105</v>
       </c>
       <c r="I56" t="n">
-        <v>0.31696</v>
+        <v>0.30674</v>
       </c>
       <c r="J56" t="n">
-        <v>0.33044</v>
+        <v>0.31714</v>
       </c>
       <c r="K56" t="n">
-        <v>0.33443</v>
+        <v>0.32204</v>
       </c>
       <c r="L56" t="n">
-        <v>0.32778</v>
+        <v>0.3207</v>
       </c>
       <c r="M56" t="n">
-        <v>0.32215</v>
+        <v>0.3189</v>
       </c>
       <c r="N56" t="n">
-        <v>0.00314</v>
+        <v>0.31583</v>
       </c>
       <c r="O56" t="n">
-        <v>0.3164</v>
+        <v>0.31708</v>
       </c>
       <c r="P56" t="n">
-        <v>0.32006</v>
+        <v>0.31915</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.32691</v>
+        <v>0.32401</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B57" t="n">
-        <v>0.46941</v>
+        <v>0.42591</v>
       </c>
       <c r="C57" t="n">
-        <v>0.44331</v>
+        <v>0.40451</v>
       </c>
       <c r="D57" t="n">
-        <v>0.39572</v>
+        <v>0.36573</v>
       </c>
       <c r="E57" t="n">
-        <v>0.32116</v>
+        <v>0.30588</v>
       </c>
       <c r="F57" t="n">
-        <v>0.27697</v>
+        <v>0.27193</v>
       </c>
       <c r="G57" t="n">
-        <v>0.26829</v>
+        <v>0.26912</v>
       </c>
       <c r="H57" t="n">
-        <v>0.29043</v>
+        <v>0.29352</v>
       </c>
       <c r="I57" t="n">
-        <v>0.30981</v>
+        <v>0.31314</v>
       </c>
       <c r="J57" t="n">
-        <v>0.32282</v>
+        <v>0.32587</v>
       </c>
       <c r="K57" t="n">
-        <v>0.32778</v>
+        <v>3.31</v>
       </c>
       <c r="L57" t="n">
-        <v>0.32356</v>
+        <v>0.32768</v>
       </c>
       <c r="M57" t="n">
-        <v>0.31958</v>
+        <v>0.32426</v>
       </c>
       <c r="N57" t="n">
-        <v>0.31389</v>
+        <v>0.31821</v>
       </c>
       <c r="O57" t="n">
-        <v>0.31648</v>
+        <v>0.3186</v>
       </c>
       <c r="P57" t="n">
-        <v>0.32027</v>
+        <v>0.31961</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.32724</v>
+        <v>0.32323</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="B58" t="n">
-        <v>0.46311</v>
+        <v>0.4554</v>
       </c>
       <c r="C58" t="n">
-        <v>0.43787</v>
+        <v>0.43044</v>
       </c>
       <c r="D58" t="n">
-        <v>0.39191</v>
+        <v>0.38506</v>
       </c>
       <c r="E58" t="n">
-        <v>0.32013</v>
+        <v>0.31453</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00278</v>
+        <v>0.2737</v>
       </c>
       <c r="G58" t="n">
-        <v>0.27057</v>
+        <v>0.26809</v>
       </c>
       <c r="H58" t="n">
-        <v>0.29259</v>
+        <v>0.29352</v>
       </c>
       <c r="I58" t="n">
-        <v>0.31129</v>
+        <v>0.31314</v>
       </c>
       <c r="J58" t="n">
-        <v>0.3237</v>
+        <v>0.32587</v>
       </c>
       <c r="K58" t="n">
-        <v>0.32798</v>
+        <v>3.31</v>
       </c>
       <c r="L58" t="n">
-        <v>0.32307</v>
+        <v>0.32768</v>
       </c>
       <c r="M58" t="n">
-        <v>0.31858</v>
+        <v>0.32426</v>
       </c>
       <c r="N58" t="n">
-        <v>0.31141</v>
+        <v>0.31821</v>
       </c>
       <c r="O58" t="n">
-        <v>0.31287</v>
+        <v>0.3186</v>
       </c>
       <c r="P58" t="n">
-        <v>0.31545</v>
+        <v>0.31961</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.32099</v>
+        <v>0.32323</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="B59" t="n">
-        <v>0.45962</v>
+        <v>0.47855</v>
       </c>
       <c r="C59" t="n">
-        <v>0.43456</v>
+        <v>0.45092</v>
       </c>
       <c r="D59" t="n">
-        <v>0.38911</v>
+        <v>0.40059</v>
       </c>
       <c r="E59" t="n">
-        <v>0.31889</v>
+        <v>0.32194</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00279</v>
+        <v>0.27572</v>
       </c>
       <c r="G59" t="n">
-        <v>0.27462</v>
+        <v>0.26768</v>
       </c>
       <c r="H59" t="n">
-        <v>0.29855</v>
+        <v>0.2928</v>
       </c>
       <c r="I59" t="n">
-        <v>0.31754</v>
+        <v>0.31429</v>
       </c>
       <c r="J59" t="n">
-        <v>0.32993</v>
+        <v>0.32851</v>
       </c>
       <c r="K59" t="n">
-        <v>0.33338</v>
+        <v>0.33391</v>
       </c>
       <c r="L59" t="n">
-        <v>0.32684</v>
+        <v>0.32933</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3213</v>
+        <v>0.32487</v>
       </c>
       <c r="N59" t="n">
-        <v>0.31305</v>
+        <v>0.31737</v>
       </c>
       <c r="O59" t="n">
-        <v>0.3154</v>
+        <v>0.31819</v>
       </c>
       <c r="P59" t="n">
-        <v>0.31932</v>
+        <v>0.31973</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.32662</v>
+        <v>0.32397</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45973</v>
+        <v>45980</v>
       </c>
       <c r="B60" t="n">
-        <v>0.45695</v>
+        <v>0.47497</v>
       </c>
       <c r="C60" t="n">
-        <v>0.43227</v>
+        <v>0.44784</v>
       </c>
       <c r="D60" t="n">
-        <v>0.38752</v>
+        <v>0.39845</v>
       </c>
       <c r="E60" t="n">
-        <v>0.31842</v>
+        <v>0.32143</v>
       </c>
       <c r="F60" t="n">
-        <v>0.27925</v>
+        <v>0.27647</v>
       </c>
       <c r="G60" t="n">
-        <v>0.27518</v>
+        <v>0.26884</v>
       </c>
       <c r="H60" t="n">
-        <v>0.29907</v>
+        <v>0.29269</v>
       </c>
       <c r="I60" t="n">
-        <v>0.31785</v>
+        <v>0.31302</v>
       </c>
       <c r="J60" t="n">
-        <v>0.32997</v>
+        <v>0.3266</v>
       </c>
       <c r="K60" t="n">
-        <v>0.33318</v>
+        <v>0.33136</v>
       </c>
       <c r="L60" t="n">
-        <v>0.32644</v>
+        <v>0.32614</v>
       </c>
       <c r="M60" t="n">
-        <v>0.32068</v>
+        <v>0.32142</v>
       </c>
       <c r="N60" t="n">
-        <v>0.31104</v>
+        <v>0.3145</v>
       </c>
       <c r="O60" t="n">
-        <v>0.31169</v>
+        <v>0.31678</v>
       </c>
       <c r="P60" t="n">
-        <v>0.3136</v>
+        <v>0.32019</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.31846</v>
+        <v>0.32669</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45972</v>
+        <v>45979</v>
       </c>
       <c r="B61" t="n">
-        <v>0.45441</v>
+        <v>0.47171</v>
       </c>
       <c r="C61" t="n">
-        <v>0.43009</v>
+        <v>0.4448</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00386</v>
+        <v>0.39594</v>
       </c>
       <c r="E61" t="n">
-        <v>0.31798</v>
+        <v>0.32037</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2795</v>
+        <v>0.27734</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2757</v>
+        <v>0.27193</v>
       </c>
       <c r="H61" t="n">
-        <v>0.29946</v>
+        <v>0.29669</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3181</v>
+        <v>0.31696</v>
       </c>
       <c r="J61" t="n">
-        <v>0.33012</v>
+        <v>0.33044</v>
       </c>
       <c r="K61" t="n">
-        <v>0.33331</v>
+        <v>0.33443</v>
       </c>
       <c r="L61" t="n">
-        <v>0.3266</v>
+        <v>0.32778</v>
       </c>
       <c r="M61" t="n">
-        <v>0.32087</v>
+        <v>0.32215</v>
       </c>
       <c r="N61" t="n">
-        <v>0.31124</v>
+        <v>3.14</v>
       </c>
       <c r="O61" t="n">
-        <v>0.31179</v>
+        <v>0.3164</v>
       </c>
       <c r="P61" t="n">
-        <v>0.31357</v>
+        <v>0.32006</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.31829</v>
+        <v>0.32691</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45971</v>
+        <v>45978</v>
       </c>
       <c r="B62" t="n">
-        <v>0.45418</v>
+        <v>0.46941</v>
       </c>
       <c r="C62" t="n">
-        <v>0.42995</v>
+        <v>0.44331</v>
       </c>
       <c r="D62" t="n">
-        <v>0.38602</v>
+        <v>0.39572</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3182</v>
+        <v>0.32116</v>
       </c>
       <c r="F62" t="n">
-        <v>0.27977</v>
+        <v>0.27697</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00276</v>
+        <v>0.26829</v>
       </c>
       <c r="H62" t="n">
-        <v>0.30004</v>
+        <v>0.29043</v>
       </c>
       <c r="I62" t="n">
-        <v>0.31885</v>
+        <v>0.30981</v>
       </c>
       <c r="J62" t="n">
-        <v>0.33093</v>
+        <v>0.32282</v>
       </c>
       <c r="K62" t="n">
-        <v>0.33422</v>
+        <v>0.32778</v>
       </c>
       <c r="L62" t="n">
-        <v>0.32769</v>
+        <v>0.32356</v>
       </c>
       <c r="M62" t="n">
-        <v>0.32202</v>
+        <v>0.31958</v>
       </c>
       <c r="N62" t="n">
-        <v>0.31212</v>
+        <v>0.31389</v>
       </c>
       <c r="O62" t="n">
-        <v>0.31215</v>
+        <v>0.31648</v>
       </c>
       <c r="P62" t="n">
-        <v>0.31332</v>
+        <v>0.32027</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.31732</v>
+        <v>0.32724</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.46311</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.43787</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.39191</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.32013</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.27057</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.29259</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.31129</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.3237</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.32798</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.32307</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.31858</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.31141</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.31287</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.31545</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.32099</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.45962</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.43456</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.38911</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.31889</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.27462</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.29855</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.31754</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.32993</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.33338</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.32684</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.3213</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.31305</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.3154</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.31932</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.32662</v>
       </c>
     </row>
   </sheetData>
